--- a/EMS_DB Design.xlsx
+++ b/EMS_DB Design.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="171">
   <si>
     <t>Leave Tracker:</t>
   </si>
@@ -34,6 +34,12 @@
     <t>Time Type(Config)</t>
   </si>
   <si>
+    <t>ems.sql.database</t>
+  </si>
+  <si>
+    <t>Database Name</t>
+  </si>
+  <si>
     <t>Tables:</t>
   </si>
   <si>
@@ -55,6 +61,12 @@
     <t>Check In</t>
   </si>
   <si>
+    <t>ems-sql-servers</t>
+  </si>
+  <si>
+    <t>Server Name</t>
+  </si>
+  <si>
     <t>Leave Management</t>
   </si>
   <si>
@@ -76,6 +88,12 @@
     <t>Check Out</t>
   </si>
   <si>
+    <t>ems.organization</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
     <t>Holidays</t>
   </si>
   <si>
@@ -97,6 +115,12 @@
     <t>DateTime</t>
   </si>
   <si>
+    <t>ABCd%0987</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
     <t>Leave Status</t>
   </si>
   <si>
@@ -289,7 +313,7 @@
     <t>PhNumber</t>
   </si>
   <si>
-    <t>Salary Details(Config)</t>
+    <t>Salary Details(data)</t>
   </si>
   <si>
     <t>Allowances:</t>
@@ -304,6 +328,9 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Allowance Name</t>
+  </si>
+  <si>
     <t>House Rent Allowance</t>
   </si>
   <si>
@@ -355,15 +382,15 @@
     <t>Blood Group</t>
   </si>
   <si>
+    <t>EPF Contributions</t>
+  </si>
+  <si>
+    <t>EmergencyNumber</t>
+  </si>
+  <si>
     <t>Allowance Type</t>
   </si>
   <si>
-    <t>EPF Contributions</t>
-  </si>
-  <si>
-    <t>EmergencyNumber</t>
-  </si>
-  <si>
     <t>Professional Tax</t>
   </si>
   <si>
@@ -410,6 +437,93 @@
   </si>
   <si>
     <t>Salary</t>
+  </si>
+  <si>
+    <t>uniqueidentifier</t>
+  </si>
+  <si>
+    <t>Unchecked</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+  </si>
+  <si>
+    <t>Checked</t>
+  </si>
+  <si>
+    <t>RoleID</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>DesignationID</t>
+  </si>
+  <si>
+    <t>ManagerUID</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>varchar(MAX)</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>DateOfJoin</t>
+  </si>
+  <si>
+    <t>BloodGroup</t>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>PreviousCompany</t>
+  </si>
+  <si>
+    <t>CompOff</t>
+  </si>
+  <si>
+    <t>OptionalLeave</t>
+  </si>
+  <si>
+    <t>LossOfPay</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
   </si>
 </sst>
 </file>
@@ -536,10 +650,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -810,759 +924,1138 @@
         <v>6</v>
       </c>
       <c r="N2" s="9"/>
+      <c r="O2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="G3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N3" s="14"/>
+      <c r="O3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="M4" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N4" s="14"/>
+      <c r="O4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>23</v>
+      <c r="A5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>29</v>
+      <c r="A6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="E7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="E7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H10" s="17"/>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>12</v>
+      <c r="A11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>12</v>
+      <c r="A12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>27</v>
+      <c r="A13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>27</v>
+      <c r="A14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>54</v>
+      <c r="A15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>27</v>
+      <c r="A16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>27</v>
+      <c r="A17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>61</v>
+      <c r="A18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C21" s="3"/>
       <c r="G21" s="19" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="L21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="11">
+        <v>76</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="10">
         <v>1.0</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>8</v>
+      <c r="J22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="11">
+        <v>78</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="10">
         <v>1.3</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>73</v>
+      <c r="J23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="11">
+        <v>82</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="10">
         <v>1.5</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>15</v>
+      <c r="J24" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25">
-      <c r="G25" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="G25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="10">
         <v>1.7</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>79</v>
+      <c r="J25" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26">
-      <c r="G26" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="11">
+      <c r="G26" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="10">
         <v>2.0</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>81</v>
+      <c r="J26" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="s">
+    </row>
+    <row r="47">
+      <c r="A47" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="K33" s="15"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="11" t="s">
+    </row>
+    <row r="56">
+      <c r="A56" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="B76" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="B77" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I41" s="11" t="s">
+      <c r="B83" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" s="11" t="s">
+      <c r="B87" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J42" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="B89" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="10" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F47" s="19" t="s">
+      <c r="B90" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F50" s="11" t="s">
+      <c r="B91" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="s">
+      <c r="B93" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="s">
-        <v>132</v>
+      <c r="B95" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/EMS_DB Design.xlsx
+++ b/EMS_DB Design.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EmployeeManagementSystem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3793213-FC17-4AE9-AFB6-468DE17D6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11660" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -529,27 +538,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -557,22 +569,26 @@
     <font>
       <b/>
       <strike/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <strike/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -582,7 +598,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -622,78 +638,61 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -883,20 +882,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:P107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,7 +935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -964,7 +968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
@@ -997,7 +1001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>36</v>
       </c>
@@ -1046,7 +1050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>41</v>
       </c>
@@ -1064,7 +1068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>45</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>47</v>
       </c>
@@ -1087,7 +1091,7 @@
       </c>
       <c r="H10" s="17"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
@@ -1104,7 +1108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>51</v>
       </c>
@@ -1121,7 +1125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>53</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>56</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>59</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>63</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>65</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>68</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
@@ -1237,7 +1241,7 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>76</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>13</v>
@@ -1260,7 +1264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>78</v>
       </c>
@@ -1283,7 +1287,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>82</v>
       </c>
@@ -1306,7 +1310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G25" s="10" t="s">
         <v>86</v>
       </c>
@@ -1320,7 +1324,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G26" s="10" t="s">
         <v>88</v>
       </c>
@@ -1328,13 +1332,13 @@
         <v>33</v>
       </c>
       <c r="I26" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>90</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>13</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>94</v>
       </c>
@@ -1377,7 +1381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>95</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>96</v>
       </c>
@@ -1393,7 +1397,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>97</v>
       </c>
@@ -1401,7 +1405,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>98</v>
       </c>
@@ -1417,7 +1421,7 @@
       </c>
       <c r="K33" s="15"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>99</v>
       </c>
@@ -1431,7 +1435,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>102</v>
       </c>
@@ -1445,7 +1449,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>104</v>
       </c>
@@ -1459,7 +1463,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>107</v>
       </c>
@@ -1477,7 +1481,7 @@
       </c>
       <c r="L37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>109</v>
       </c>
@@ -1494,7 +1498,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>53</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>112</v>
       </c>
@@ -1525,7 +1529,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>115</v>
       </c>
@@ -1539,7 +1543,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>118</v>
       </c>
@@ -1556,7 +1560,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>120</v>
       </c>
@@ -1573,7 +1577,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>122</v>
       </c>
@@ -1581,7 +1585,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>124</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>127</v>
       </c>
@@ -1597,7 +1601,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>79</v>
       </c>
@@ -1608,7 +1612,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>84</v>
       </c>
@@ -1619,7 +1623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>128</v>
       </c>
@@ -1630,7 +1634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>130</v>
       </c>
@@ -1641,7 +1645,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>131</v>
       </c>
@@ -1649,7 +1653,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>132</v>
       </c>
@@ -1657,7 +1661,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>136</v>
       </c>
@@ -1665,7 +1669,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>138</v>
       </c>
@@ -1673,7 +1677,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>139</v>
       </c>
@@ -1681,32 +1685,32 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>13</v>
       </c>
@@ -1717,7 +1721,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>144</v>
       </c>
@@ -1728,7 +1732,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>95</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>96</v>
       </c>
@@ -1750,7 +1754,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>148</v>
       </c>
@@ -1761,7 +1765,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>150</v>
       </c>
@@ -1772,7 +1776,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>151</v>
       </c>
@@ -1783,7 +1787,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>152</v>
       </c>
@@ -1794,7 +1798,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>104</v>
       </c>
@@ -1805,7 +1809,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>98</v>
       </c>
@@ -1816,7 +1820,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>155</v>
       </c>
@@ -1827,7 +1831,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>157</v>
       </c>
@@ -1838,7 +1842,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>159</v>
       </c>
@@ -1849,7 +1853,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>112</v>
       </c>
@@ -1860,7 +1864,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>127</v>
       </c>
@@ -1871,7 +1875,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>115</v>
       </c>
@@ -1882,7 +1886,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>118</v>
       </c>
@@ -1893,7 +1897,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>120</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>160</v>
       </c>
@@ -1915,7 +1919,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>124</v>
       </c>
@@ -1926,7 +1930,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>162</v>
       </c>
@@ -1937,7 +1941,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>131</v>
       </c>
@@ -1948,7 +1952,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>163</v>
       </c>
@@ -1959,7 +1963,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>136</v>
       </c>
@@ -1970,7 +1974,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>138</v>
       </c>
@@ -1981,7 +1985,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>139</v>
       </c>
@@ -1992,7 +1996,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>164</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>165</v>
       </c>
@@ -2014,7 +2018,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>166</v>
       </c>
@@ -2025,7 +2029,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>167</v>
       </c>
@@ -2036,7 +2040,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>168</v>
       </c>
@@ -2047,7 +2051,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>170</v>
       </c>
@@ -2059,6 +2063,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/EMS_DB Design.xlsx
+++ b/EMS_DB Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EmployeeManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3793213-FC17-4AE9-AFB6-468DE17D6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CF42B7-EE90-4E3A-9721-3ADC7AE9FE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="11660" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="173">
   <si>
     <t>Leave Tracker:</t>
   </si>
@@ -295,9 +295,6 @@
     <t>User(Data)</t>
   </si>
   <si>
-    <t>PendingUser(Data)</t>
-  </si>
-  <si>
     <t>PerfStatus</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>RoleUID</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -533,6 +527,18 @@
   </si>
   <si>
     <t>DisplayName</t>
+  </si>
+  <si>
+    <t>PasswordHash</t>
+  </si>
+  <si>
+    <t>HashKey</t>
+  </si>
+  <si>
+    <t>ResetPasswordToken</t>
+  </si>
+  <si>
+    <t>ResetPasswordTokenKey</t>
   </si>
 </sst>
 </file>
@@ -894,13 +900,13 @@
   </sheetPr>
   <dimension ref="A2:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>41</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>47</v>
       </c>
@@ -1342,12 +1348,10 @@
       <c r="A27" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>91</v>
-      </c>
+      <c r="D27" s="16"/>
       <c r="E27" s="17"/>
       <c r="G27" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>62</v>
@@ -1357,11 +1361,9 @@
       <c r="A28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="D28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>62</v>
@@ -1369,11 +1371,9 @@
     </row>
     <row r="29" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D29" s="10"/>
       <c r="G29" s="10" t="s">
         <v>53</v>
       </c>
@@ -1383,295 +1383,253 @@
     </row>
     <row r="30" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="G33" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K33" s="15"/>
     </row>
     <row r="34" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>102</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D34" s="10"/>
       <c r="G34" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="G35" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D36" s="10"/>
       <c r="G36" s="10" t="s">
         <v>50</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>109</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D37" s="10"/>
       <c r="G37" s="10" t="s">
         <v>52</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>112</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D38" s="10"/>
       <c r="G38" s="10" t="s">
         <v>54</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="D39" s="10"/>
       <c r="G39" s="10" t="s">
         <v>57</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>118</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D40" s="10"/>
       <c r="G40" s="10" t="s">
         <v>60</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>120</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D41" s="10"/>
       <c r="G41" s="10" t="s">
         <v>64</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>122</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D42" s="10"/>
       <c r="G42" s="10" t="s">
         <v>66</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="G43" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="J43" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>127</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>84</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="D47" s="10"/>
       <c r="F47" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>130</v>
-      </c>
+      <c r="D48" s="10"/>
       <c r="F48" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>131</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D49" s="10"/>
       <c r="F49" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>132</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D50" s="10"/>
       <c r="F50" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>79</v>
@@ -1679,7 +1637,7 @@
     </row>
     <row r="55" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>86</v>
@@ -1692,7 +1650,7 @@
     </row>
     <row r="57" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
@@ -1707,7 +1665,27 @@
     </row>
     <row r="60" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -1715,351 +1693,351 @@
         <v>13</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/EMS_DB Design.xlsx
+++ b/EMS_DB Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EmployeeManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CF42B7-EE90-4E3A-9721-3ADC7AE9FE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24ECC63-3F2E-4571-8501-3AC709A165CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="179">
   <si>
     <t>Leave Tracker:</t>
   </si>
@@ -316,9 +316,6 @@
     <t>PhNumber</t>
   </si>
   <si>
-    <t>Salary Details(data)</t>
-  </si>
-  <si>
     <t>Allowances:</t>
   </si>
   <si>
@@ -331,9 +328,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Allowance Name</t>
-  </si>
-  <si>
     <t>House Rent Allowance</t>
   </si>
   <si>
@@ -539,13 +533,37 @@
   </si>
   <si>
     <t>ResetPasswordTokenKey</t>
+  </si>
+  <si>
+    <t>Designation(config)</t>
+  </si>
+  <si>
+    <t>There is many to many relationship between Designation and Allowance.</t>
+  </si>
+  <si>
+    <t>Salary Structure(Data)</t>
+  </si>
+  <si>
+    <t>DesignationId</t>
+  </si>
+  <si>
+    <t>AllowanceId</t>
+  </si>
+  <si>
+    <t>Id,name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>AllowanceType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -597,6 +615,28 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -655,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -680,6 +720,9 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,8 +943,8 @@
   </sheetPr>
   <dimension ref="A2:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="E32" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1438,7 @@
     </row>
     <row r="32" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D32" s="10"/>
     </row>
@@ -1405,11 +1448,11 @@
       </c>
       <c r="D33" s="10"/>
       <c r="G33" s="19" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K33" s="15"/>
     </row>
@@ -1418,66 +1461,66 @@
         <v>97</v>
       </c>
       <c r="D34" s="10"/>
-      <c r="G34" s="10" t="s">
-        <v>13</v>
+      <c r="G34" s="24" t="s">
+        <v>176</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D36" s="10"/>
       <c r="G36" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
@@ -1486,86 +1529,86 @@
       </c>
       <c r="D39" s="10"/>
       <c r="G39" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D40" s="10"/>
       <c r="G40" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D42" s="10"/>
       <c r="G42" s="10" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D43" s="10"/>
-      <c r="G43" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="I43" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D46" s="10"/>
+      <c r="G46" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="47" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
@@ -1573,10 +1616,10 @@
       </c>
       <c r="D47" s="10"/>
       <c r="F47" s="19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>84</v>
       </c>
@@ -1584,108 +1627,126 @@
       <c r="F48" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G48" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D49" s="10"/>
       <c r="F49" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G49" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D50" s="10"/>
       <c r="F50" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" s="10" t="s">
+      <c r="G52" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F52" s="10" t="s">
+      <c r="F53" s="10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="G53" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -1693,21 +1754,21 @@
         <v>13</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -1715,10 +1776,10 @@
         <v>94</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -1726,65 +1787,65 @@
         <v>95</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -1792,255 +1853,256 @@
         <v>96</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>